--- a/PLANO DE TESTE.xlsx
+++ b/PLANO DE TESTE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUPORTETI\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E977A97-2041-4321-958E-B2202C06723F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC605ED-01D0-4FA6-A55E-115B6C0ABF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORMATIVO" sheetId="4" r:id="rId1"/>
@@ -19,17 +19,26 @@
     <sheet name="HEURISTICA NILSEN" sheetId="6" r:id="rId4"/>
     <sheet name="CAIXA BRANCA (ESTÁTICO)" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
   <si>
     <t>PROJETO / SISTEMA</t>
   </si>
@@ -169,255 +178,6 @@
     <t>RISCOS/AÇÕES</t>
   </si>
   <si>
-    <t>Selecionar Produto</t>
-  </si>
-  <si>
-    <t>Cliente seleciona um produto disponível</t>
-  </si>
-  <si>
-    <t>Produto deve ser fácil de encontrar</t>
-  </si>
-  <si>
-    <t>Nenhum risco identificado</t>
-  </si>
-  <si>
-    <t>Adicionar ao Carrinho</t>
-  </si>
-  <si>
-    <t>Cliente adiciona o produto ao carrinho</t>
-  </si>
-  <si>
-    <t>Revisar Carrinho</t>
-  </si>
-  <si>
-    <t>Cliente revisa os itens no carrinho</t>
-  </si>
-  <si>
-    <t>Inserir Dados de Pagamento</t>
-  </si>
-  <si>
-    <t>Confirmar Pedido</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>Produto é selecionado e exibido no carrinho</t>
-  </si>
-  <si>
-    <t>Produto adicionado ao carrinho com sucesso</t>
-  </si>
-  <si>
-    <t>O botão 'adicionar' deve estar claramente visível</t>
-  </si>
-  <si>
-    <t>Falha na atualização do estoque pode causar problemas</t>
-  </si>
-  <si>
-    <t>Itens do carrinho são exibidos corretamente</t>
-  </si>
-  <si>
-    <t>Produtos e preços devem ser claros e corretos</t>
-  </si>
-  <si>
-    <t>Falhas na exibição podem confundir o cliente</t>
-  </si>
-  <si>
-    <t>Cliente insere os dados de pagamento</t>
-  </si>
-  <si>
-    <t>Sistema aceita os dados e processa a compra</t>
-  </si>
-  <si>
-    <t>O formulário de pagamento deve ser simples e seguro</t>
-  </si>
-  <si>
-    <t>Dados de pagamento incorretos podem causar falhas de processamento</t>
-  </si>
-  <si>
-    <t>Cliente confirma a compra após inserir os dados de pagamento</t>
-  </si>
-  <si>
-    <t>Pedido confirmado, mensagem de sucesso é exibida</t>
-  </si>
-  <si>
-    <t>O cliente quer uma confirmação clara da compra</t>
-  </si>
-  <si>
-    <t>Falhas no sistema de pagamento podem causar frustração</t>
-  </si>
-  <si>
-    <t>Produto Fora de Estoque</t>
-  </si>
-  <si>
-    <t>Cliente tenta adicionar ao carrinho um produto que está fora de estoque</t>
-  </si>
-  <si>
-    <t>Exibir mensagem informando que o produto está fora de estoque</t>
-  </si>
-  <si>
-    <t>Preciso saber imediatamente se o produto não está disponível</t>
-  </si>
-  <si>
-    <t>Cliente pode abandonar o processo de compra</t>
-  </si>
-  <si>
-    <t>Carrinho Vazio</t>
-  </si>
-  <si>
-    <t>Cliente tenta prosseguir sem produtos no carrinho</t>
-  </si>
-  <si>
-    <t>Exibir mensagem 'Carrinho está vazio' e impedir progresso</t>
-  </si>
-  <si>
-    <t>Deve ser impossível prosseguir sem itens no carrinho</t>
-  </si>
-  <si>
-    <t>Cliente pode se frustrar ao não conseguir avançar</t>
-  </si>
-  <si>
-    <t>Pagamento Recusado</t>
-  </si>
-  <si>
-    <t>Cliente insere dados de pagamento incorretos</t>
-  </si>
-  <si>
-    <t>Exibir mensagem 'Pagamento recusado' e solicitar novos dados</t>
-  </si>
-  <si>
-    <t>O cliente quer saber o motivo da falha no pagamento</t>
-  </si>
-  <si>
-    <t>Cliente pode abandonar a compra após várias tentativas</t>
-  </si>
-  <si>
-    <t>Sessão Expirada</t>
-  </si>
-  <si>
-    <t>Cliente demora muito para concluir a compra e a sessão expira</t>
-  </si>
-  <si>
-    <t>Exibir mensagem 'Sessão expirada' e solicitar novo login</t>
-  </si>
-  <si>
-    <t>O cliente precisa ser avisado antes da sessão expirar</t>
-  </si>
-  <si>
-    <t>Sessão expirada pode causar perda de vendas</t>
-  </si>
-  <si>
-    <t>Consulta de Disponibilidade</t>
-  </si>
-  <si>
-    <t>Hotel.consultarDisponibilidade</t>
-  </si>
-  <si>
-    <t>Verificar disponibilidade de quartos no hotel.</t>
-  </si>
-  <si>
-    <t>Exibir quartos disponíveis ou mensagem de indisponibilidade.</t>
-  </si>
-  <si>
-    <t>Em andamento</t>
-  </si>
-  <si>
-    <t>Nenhuma observação.</t>
-  </si>
-  <si>
-    <t>Fazer Reserva</t>
-  </si>
-  <si>
-    <t>Usuario.fazerReserva</t>
-  </si>
-  <si>
-    <t>Criar uma reserva para um quarto disponível.</t>
-  </si>
-  <si>
-    <t>Reserva criada e disponibilidade do quarto alterada para 'false'.</t>
-  </si>
-  <si>
-    <t>Pendente</t>
-  </si>
-  <si>
-    <t>Deve verificar as datas corretamente.</t>
-  </si>
-  <si>
-    <t>Cancelar Reserva</t>
-  </si>
-  <si>
-    <t>Usuario.cancelarReserva</t>
-  </si>
-  <si>
-    <t>Cancelar uma reserva existente e liberar o quarto.</t>
-  </si>
-  <si>
-    <t>Reserva cancelada e disponibilidade do quarto alterada para 'true'.</t>
-  </si>
-  <si>
-    <t>Não iniciado</t>
-  </si>
-  <si>
-    <t>Realizar em sequência com o teste 2.</t>
-  </si>
-  <si>
-    <t>Quarto Indisponível</t>
-  </si>
-  <si>
-    <t>Tentativa de reservar um quarto indisponível.</t>
-  </si>
-  <si>
-    <t>Mensagem de erro informando indisponibilidade.</t>
-  </si>
-  <si>
-    <t>Testar após modificar disponibilidade.</t>
-  </si>
-  <si>
-    <t>Confirmar Cancelamento</t>
-  </si>
-  <si>
-    <t>Reserva.cancelarReserva</t>
-  </si>
-  <si>
-    <t>Confirmar se o quarto está liberado após o cancelamento da reserva.</t>
-  </si>
-  <si>
-    <t>O quarto deve estar disponível ('true').</t>
-  </si>
-  <si>
-    <t>Aguardar finalização do teste 3.</t>
-  </si>
-  <si>
-    <t>Exceção de Reserva</t>
-  </si>
-  <si>
-    <t>Reserva.criarReserva</t>
-  </si>
-  <si>
-    <t>Tentar criar uma reserva para um quarto que já está reservado.</t>
-  </si>
-  <si>
-    <t>Exceção lançada ('IllegalArgumentException').</t>
-  </si>
-  <si>
-    <t>Confirmar que exceção é lançada.</t>
-  </si>
-  <si>
-    <t>Fluxo Alternativo</t>
-  </si>
-  <si>
-    <t>Hotel.cancelarReserva</t>
-  </si>
-  <si>
-    <t>Verificar fluxo alternativo de cancelamento após reserva já realizada e verificação de informações incorretas.</t>
-  </si>
-  <si>
-    <t>Reserva não deve ser criada se houver erros.</t>
-  </si>
-  <si>
-    <t>Precisa de detalhamento de validações.</t>
-  </si>
-  <si>
     <t>ID PARTICIPANTE</t>
   </si>
   <si>
@@ -439,24 +199,6 @@
     <t>STATUS DE IMPLEMENTAÇÃO</t>
   </si>
   <si>
-    <t>IDENTIFICAÇÃO DE AÇÃO A SER EXECUTADA.</t>
-  </si>
-  <si>
-    <t>CONSISTÊNCIA DE PADRÕES</t>
-  </si>
-  <si>
-    <t>APÓS INICIAR A INSERÇÃO DO MEU E-MAIL SENTI DIFICULDADES EM SABER SE DEVERIA INSERIR O E-MAIL E TELEFONE NO CAMPO.</t>
-  </si>
-  <si>
-    <t>MÉDIA</t>
-  </si>
-  <si>
-    <t>USO DE RÔTULOS ACIMA DOS CAMPOS DE PREENCHIMENTO. UTILIZAR CAMPOS QUE TENHAM SOMENTE UM DADO A SER REGISTRADO.</t>
-  </si>
-  <si>
-    <t>[Não iniciado/Em progresso/Concluído]</t>
-  </si>
-  <si>
     <t>TIPO DE TESTE</t>
   </si>
   <si>
@@ -491,6 +233,15 @@
   </si>
   <si>
     <t>Fechar Connection, Statement e ResultSet utilizando try-with-resources ou bloco finally.</t>
+  </si>
+  <si>
+    <t>Inserindo informações na aba Caixa Branca</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Caixa Branca</t>
   </si>
 </sst>
 </file>
@@ -790,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -812,9 +563,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -885,6 +633,12 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1168,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,7 +944,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>14</v>
@@ -1198,13 +952,13 @@
       <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1231,11 +985,11 @@
       <c r="I2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
@@ -1248,11 +1002,21 @@
       <c r="D3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="F3" s="32">
+        <v>45972</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
@@ -1306,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,189 +1088,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" t="s">
-        <v>128</v>
-      </c>
-    </row>
+    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1514,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,235 +1135,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" t="s">
-        <v>91</v>
-      </c>
-    </row>
+    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1770,7 +1169,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD7"/>
+      <selection activeCell="A2" sqref="A2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1784,107 +1183,90 @@
     <col min="8" max="8" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="14" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>0</v>
-      </c>
-      <c r="B2" s="13">
-        <v>1</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="B1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1895,7 +1277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1907,35 +1289,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="28"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31">
         <v>45972</v>
       </c>
-      <c r="E3" s="31"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1965,10 +1347,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>147</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1982,10 +1364,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>150</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1999,10 +1381,10 @@
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>149</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -2016,10 +1398,10 @@
         <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>152</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2027,16 +1409,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
